--- a/DirectX/Assets/Data/EnemyList.xlsx
+++ b/DirectX/Assets/Data/EnemyList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\Sourcetree\Roll\DirectX\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFB21708-82A4-419C-A987-2F8B1C2E435C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19B0B19-18D8-4DE1-BA0F-C476E214FE68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CE8C4FF2-72DE-4EEE-BB9C-8690B5892865}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>Normal</t>
+  </si>
+  <si>
+    <t>Tackle</t>
   </si>
 </sst>
 </file>
@@ -445,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{453BC842-67A1-4E86-A5CB-2A8B9269F357}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -522,6 +525,23 @@
       </c>
       <c r="F4">
         <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B5">
+        <v>800</v>
+      </c>
+      <c r="C5">
+        <v>600</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
